--- a/02.Signals/ETF_202403.xlsx
+++ b/02.Signals/ETF_202403.xlsx
@@ -567,7 +567,7 @@
         </is>
       </c>
       <c r="B2" s="1" t="n">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C2" t="n">
         <v>202403</v>
@@ -609,7 +609,7 @@
         <v>10</v>
       </c>
       <c r="P2" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="Q2" t="n">
         <v>7</v>
@@ -646,7 +646,7 @@
         </is>
       </c>
       <c r="B3" s="1" t="n">
-        <v>49.25</v>
+        <v>53.25</v>
       </c>
       <c r="C3" t="n">
         <v>202403</v>
@@ -688,7 +688,7 @@
         <v>5.5</v>
       </c>
       <c r="P3" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="Q3" t="n">
         <v>8</v>
@@ -725,7 +725,7 @@
         </is>
       </c>
       <c r="B4" s="1" t="n">
-        <v>39.75</v>
+        <v>37.75</v>
       </c>
       <c r="C4" t="n">
         <v>202403</v>
@@ -770,7 +770,7 @@
         <v>3</v>
       </c>
       <c r="Q4" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="R4" t="n">
         <v>5.5</v>
@@ -804,7 +804,7 @@
         </is>
       </c>
       <c r="B5" s="1" t="n">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="C5" t="n">
         <v>202403</v>
@@ -846,10 +846,10 @@
         <v>7.75</v>
       </c>
       <c r="P5" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="Q5" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="R5" t="n">
         <v>3.25</v>
@@ -883,7 +883,7 @@
         </is>
       </c>
       <c r="B6" s="1" t="n">
-        <v>34.5</v>
+        <v>36.5</v>
       </c>
       <c r="C6" t="n">
         <v>202403</v>
@@ -928,7 +928,7 @@
         <v>3</v>
       </c>
       <c r="Q6" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="R6" t="n">
         <v>3.25</v>
@@ -962,7 +962,7 @@
         </is>
       </c>
       <c r="B7" s="1" t="n">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="C7" t="n">
         <v>202403</v>
@@ -1004,10 +1004,10 @@
         <v>10</v>
       </c>
       <c r="P7" t="n">
+        <v>10</v>
+      </c>
+      <c r="Q7" t="n">
         <v>9</v>
-      </c>
-      <c r="Q7" t="n">
-        <v>8</v>
       </c>
       <c r="R7" t="n">
         <v>1</v>
@@ -1041,7 +1041,7 @@
         </is>
       </c>
       <c r="B8" s="1" t="n">
-        <v>48.25</v>
+        <v>50.25</v>
       </c>
       <c r="C8" t="n">
         <v>202403</v>
@@ -1086,7 +1086,7 @@
         <v>6</v>
       </c>
       <c r="Q8" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="R8" t="n">
         <v>7.75</v>
@@ -1120,7 +1120,7 @@
         </is>
       </c>
       <c r="B9" s="1" t="n">
-        <v>46.75</v>
+        <v>47.75</v>
       </c>
       <c r="C9" t="n">
         <v>202403</v>
@@ -1165,7 +1165,7 @@
         <v>2</v>
       </c>
       <c r="Q9" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="R9" t="n">
         <v>10</v>
@@ -1199,7 +1199,7 @@
         </is>
       </c>
       <c r="B10" s="1" t="n">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="C10" t="n">
         <v>202403</v>
@@ -1241,10 +1241,10 @@
         <v>7.75</v>
       </c>
       <c r="P10" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Q10" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="R10" t="n">
         <v>5.5</v>
@@ -1278,7 +1278,7 @@
         </is>
       </c>
       <c r="B11" s="1" t="n">
-        <v>62.5</v>
+        <v>63.5</v>
       </c>
       <c r="C11" t="n">
         <v>202403</v>
@@ -1320,7 +1320,7 @@
         <v>10</v>
       </c>
       <c r="P11" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="Q11" t="n">
         <v>6</v>
@@ -1357,7 +1357,7 @@
         </is>
       </c>
       <c r="B12" s="1" t="n">
-        <v>32.5</v>
+        <v>34.5</v>
       </c>
       <c r="C12" t="n">
         <v>202403</v>
@@ -1399,10 +1399,10 @@
         <v>1</v>
       </c>
       <c r="P12" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Q12" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R12" t="n">
         <v>5.5</v>
@@ -1436,7 +1436,7 @@
         </is>
       </c>
       <c r="B13" s="1" t="n">
-        <v>78.75</v>
+        <v>76.75</v>
       </c>
       <c r="C13" t="n">
         <v>202403</v>
@@ -1478,7 +1478,7 @@
         <v>7.75</v>
       </c>
       <c r="P13" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="Q13" t="n">
         <v>9</v>
@@ -1515,7 +1515,7 @@
         </is>
       </c>
       <c r="B14" s="1" t="n">
-        <v>37.75</v>
+        <v>41.75</v>
       </c>
       <c r="C14" t="n">
         <v>202403</v>
@@ -1557,10 +1557,10 @@
         <v>3.25</v>
       </c>
       <c r="P14" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="Q14" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="R14" t="n">
         <v>10</v>
@@ -1673,7 +1673,7 @@
         </is>
       </c>
       <c r="B16" s="1" t="n">
-        <v>34.75</v>
+        <v>32.75</v>
       </c>
       <c r="C16" t="n">
         <v>202403</v>
@@ -1715,10 +1715,10 @@
         <v>1</v>
       </c>
       <c r="P16" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q16" t="n">
         <v>5</v>
-      </c>
-      <c r="Q16" t="n">
-        <v>6</v>
       </c>
       <c r="R16" t="n">
         <v>10</v>
@@ -1752,7 +1752,7 @@
         </is>
       </c>
       <c r="B17" s="1" t="n">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="C17" t="n">
         <v>202403</v>
@@ -1794,10 +1794,10 @@
         <v>3.25</v>
       </c>
       <c r="P17" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="Q17" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="R17" t="n">
         <v>7.75</v>
@@ -1831,7 +1831,7 @@
         </is>
       </c>
       <c r="B18" s="1" t="n">
-        <v>76.75</v>
+        <v>72.75</v>
       </c>
       <c r="C18" t="n">
         <v>202403</v>
@@ -1873,10 +1873,10 @@
         <v>5.5</v>
       </c>
       <c r="P18" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="Q18" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="R18" t="n">
         <v>7.75</v>
@@ -1910,7 +1910,7 @@
         </is>
       </c>
       <c r="B19" s="1" t="n">
-        <v>61.75</v>
+        <v>58.75</v>
       </c>
       <c r="C19" t="n">
         <v>202403</v>
@@ -1952,10 +1952,10 @@
         <v>7.75</v>
       </c>
       <c r="P19" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="Q19" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="R19" t="n">
         <v>7.75</v>
@@ -1989,7 +1989,7 @@
         </is>
       </c>
       <c r="B20" s="1" t="n">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="C20" t="n">
         <v>202403</v>
@@ -2031,10 +2031,10 @@
         <v>3.25</v>
       </c>
       <c r="P20" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="Q20" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="R20" t="n">
         <v>1</v>
@@ -2068,7 +2068,7 @@
         </is>
       </c>
       <c r="B21" s="1" t="n">
-        <v>36.5</v>
+        <v>39.5</v>
       </c>
       <c r="C21" t="n">
         <v>202403</v>
@@ -2110,10 +2110,10 @@
         <v>3.25</v>
       </c>
       <c r="P21" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q21" t="n">
         <v>4</v>
-      </c>
-      <c r="Q21" t="n">
-        <v>2</v>
       </c>
       <c r="R21" t="n">
         <v>1</v>
